--- a/BOM_Goldfinger.xlsx
+++ b/BOM_Goldfinger.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr Sheybani\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_PCB\GoldFinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E517732E-1C77-4F8B-81F9-7812DDB93AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name=" BOM Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Designator</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -137,9 +136,6 @@
     <t>LED1</t>
   </si>
   <si>
-    <t xml:space="preserve">LW QH8G-Q2OO-3K5L-1 </t>
-  </si>
-  <si>
     <t>LED2</t>
   </si>
   <si>
@@ -212,9 +208,6 @@
     <t>https://www.seeedstudio.com/Seeed-XIAO-BLE-nRF52840-p-5201.html</t>
   </si>
   <si>
-    <t>Seeed Studio XIAO nRF52840</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -225,12 +218,15 @@
   </si>
   <si>
     <t>https://eu.mouser.com/ProductDetail/ABRACON/ABM8AIG-12.000MHZ-1Z-TR?qs=t7xnP681wgVIFBgGyVZCbw%3D%3D</t>
+  </si>
+  <si>
+    <t>LWQH8G-Q2OO-3K5L-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21">
     <font>
       <sz val="12"/>
@@ -1212,19 +1208,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="125.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="125.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1">
@@ -1398,142 +1394,142 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="2">
+        <v>102010448</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1579,27 +1575,27 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D928EF09-1295-4213-A9BC-014B7DA12D6A}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{8173FC23-47CA-49D8-A2A9-2D37267212C6}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{F1B53BAA-FF8D-47A6-A03D-BE0D8D430DFF}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{9F5F5D95-6E2A-4D78-9A2E-31F31864B85C}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{DEFADBC9-CB6D-4A55-97DB-9E8B213A9BE0}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{49472C0C-ABEF-445E-8F23-06C4BAB6D0E1}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{B09C19B6-219F-4F5B-BADC-D420EE4A7F97}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{A0D5D4C8-3CFB-4CE3-BC1D-6AF88A07451D}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{D2752781-7ECF-4EEE-952D-35C2734A839D}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{5816E871-231D-46CF-BA43-C4BE82667917}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{42502030-675C-4657-A845-057B7650CE2E}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{E6FB7B1D-CDCC-4751-BF76-CD09A2F24CBC}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{A7B0971C-943B-484D-9D62-97820C02BE7F}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{AE02DE24-657A-47BA-97DF-A8BA5ED05C95}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{FEC203A9-9089-4CB4-A863-4696C9049930}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{2F07AE43-956A-4A41-9DD0-CF355F3C7FF4}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{F9497EF4-7508-4634-9B58-6424F66D3305}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{594A8A40-2037-4D99-8AC4-C15D9DA19482}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{95A9BC7E-091A-4803-BC2E-3F570F6DE070}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{8B4D981C-99D1-4540-B7DB-08D7B0A2DFC4}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{9D81FB61-2DCE-437D-A8E5-1E45AF60D713}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BOM_Goldfinger.xlsx
+++ b/BOM_Goldfinger.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Designator</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>LWQH8G-Q2OO-3K5L-1</t>
+  </si>
+  <si>
+    <t>J2_1</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/NFC-Antenna-p-1805.html</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1533,9 +1539,18 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2">
+        <v>113990051</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2"/>
@@ -1596,6 +1611,7 @@
     <hyperlink ref="D20" r:id="rId19"/>
     <hyperlink ref="D21" r:id="rId20"/>
     <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
